--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paweł Skorupa\Desktop\Magisterskie\masters\AI-tools-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1999F5B-E452-4E39-9BAC-E9AD027C0FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D96E4-464D-4AE3-8895-3565BE90BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{666B9FA9-F2C9-479A-B3E1-10E6830D7CA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{666B9FA9-F2C9-479A-B3E1-10E6830D7CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="30">
   <si>
     <t>ChatGPT</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>Tabnine</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>DeepSeek</t>
   </si>
 </sst>
 </file>
@@ -539,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE26591-5507-4A9E-8E80-9C468468F115}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,6 +560,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,6 +623,9 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -636,6 +649,9 @@
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -658,6 +674,9 @@
       </c>
       <c r="G5" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -695,6 +714,9 @@
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -718,6 +740,9 @@
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -741,6 +766,9 @@
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -764,6 +792,9 @@
       <c r="G10">
         <v>53</v>
       </c>
+      <c r="H10">
+        <v>355</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -786,6 +817,9 @@
       </c>
       <c r="G11">
         <v>377</v>
+      </c>
+      <c r="H11">
+        <v>69792</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -823,6 +857,9 @@
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -846,6 +883,9 @@
       <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -869,6 +909,9 @@
       <c r="G15" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H15" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -892,6 +935,9 @@
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -913,6 +959,9 @@
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -951,6 +1000,9 @@
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H19" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -974,6 +1026,9 @@
       <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H20" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -996,6 +1051,9 @@
       </c>
       <c r="G21" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1033,6 +1091,9 @@
       <c r="G23" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H23" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1056,6 +1117,9 @@
       <c r="G24" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H24" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1079,6 +1143,9 @@
       <c r="G25" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -1100,6 +1167,9 @@
         <v>9</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1161,9 +1231,84 @@
       <c r="G29">
         <v>0</v>
       </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD17AC5-5E62-4EC9-9784-97E7492AA189}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paweł Skorupa\Desktop\Magisterskie\masters\AI-tools-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D96E4-464D-4AE3-8895-3565BE90BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{333ED9FF-63A0-4580-BD0E-F1EBFE071D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{666B9FA9-F2C9-479A-B3E1-10E6830D7CA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{666B9FA9-F2C9-479A-B3E1-10E6830D7CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
+  <si>
+    <t>Complex</t>
+  </si>
   <si>
     <t>ChatGPT</t>
   </si>
@@ -57,28 +60,43 @@
     <t>Microsoft Copilot</t>
   </si>
   <si>
+    <t>Google Gemini</t>
+  </si>
+  <si>
+    <t>Tabnine</t>
+  </si>
+  <si>
+    <t>macierz 4x4</t>
+  </si>
+  <si>
     <t>czy program się wykonał</t>
   </si>
   <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
     <t>czy wynik był poprawny</t>
   </si>
   <si>
-    <t>ü</t>
-  </si>
-  <si>
-    <t>û</t>
-  </si>
-  <si>
     <t>czy otrzymano najkrótszą ścieżkę</t>
   </si>
   <si>
+    <t>macierz 10x10</t>
+  </si>
+  <si>
     <t>czas wykonania [ms]</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>zajętość pamięci [KB]</t>
   </si>
   <si>
-    <t>-</t>
+    <t>macierz 15x15</t>
   </si>
   <si>
     <t>graf asymetryczny</t>
@@ -87,15 +105,6 @@
     <t>odporność na błędne dane wejściowe</t>
   </si>
   <si>
-    <t>macierz 4x4</t>
-  </si>
-  <si>
-    <t>macierz 10x10</t>
-  </si>
-  <si>
-    <t>macierz 15x15</t>
-  </si>
-  <si>
     <t>macierz jako null</t>
   </si>
   <si>
@@ -117,13 +126,10 @@
     <t>uwagi intelliJ</t>
   </si>
   <si>
-    <t>Google Gemini</t>
-  </si>
-  <si>
-    <t>Tabnine</t>
-  </si>
-  <si>
-    <t>Complex</t>
+    <t>uwagi Codana</t>
+  </si>
+  <si>
+    <t>ilość linii kodu</t>
   </si>
   <si>
     <t>DeepSeek</t>
@@ -133,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,53 +550,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE26591-5507-4A9E-8E80-9C468468F115}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="81.599999999999994" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -601,87 +607,96 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -692,87 +707,96 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>447</v>
@@ -787,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>53</v>
@@ -795,10 +819,13 @@
       <c r="H10">
         <v>355</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>37089</v>
@@ -813,7 +840,7 @@
         <v>202</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>377</v>
@@ -821,10 +848,13 @@
       <c r="H11">
         <v>69792</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -835,139 +865,154 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -978,87 +1023,96 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29.25">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1069,113 +1123,125 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="29.25">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1186,9 +1252,9 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1208,10 +1274,16 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1233,6 +1305,67 @@
       </c>
       <c r="H29">
         <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <v>54</v>
+      </c>
+      <c r="F31">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <v>72</v>
+      </c>
+      <c r="H31">
+        <v>96</v>
+      </c>
+      <c r="I31">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1243,51 +1376,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD17AC5-5E62-4EC9-9784-97E7492AA189}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.9">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1306,6 +1460,61 @@
       </c>
       <c r="G3">
         <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>458</v>
+      </c>
+      <c r="D5">
+        <v>121</v>
+      </c>
+      <c r="E5">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>148</v>
+      </c>
+      <c r="H5">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
